--- a/unity-business-innovation/src/main/resources/template/dwsp.xlsx
+++ b/unity-business-innovation/src/main/resources/template/dwsp.xlsx
@@ -1,6 +1,182 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86156\Desktop\文件\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52FA395-D08A-4CFA-BF4B-48AEB803046B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>工作类别</t>
+  </si>
+  <si>
+    <t>关键字</t>
+  </si>
+  <si>
+    <t>主题</t>
+  </si>
+  <si>
+    <t>内容描述</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>附件</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -16,7 +192,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -28,7 +204,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -75,23 +251,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -127,23 +286,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -286,9 +428,345 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="6" width="27.5" customWidth="1"/>
+    <col min="7" max="7" width="55" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="257" max="260" width="13.75" customWidth="1"/>
+    <col min="261" max="262" width="27.5" customWidth="1"/>
+    <col min="263" max="263" width="55" customWidth="1"/>
+    <col min="264" max="264" width="16.5" customWidth="1"/>
+    <col min="513" max="516" width="13.75" customWidth="1"/>
+    <col min="517" max="518" width="27.5" customWidth="1"/>
+    <col min="519" max="519" width="55" customWidth="1"/>
+    <col min="520" max="520" width="16.5" customWidth="1"/>
+    <col min="769" max="772" width="13.75" customWidth="1"/>
+    <col min="773" max="774" width="27.5" customWidth="1"/>
+    <col min="775" max="775" width="55" customWidth="1"/>
+    <col min="776" max="776" width="16.5" customWidth="1"/>
+    <col min="1025" max="1028" width="13.75" customWidth="1"/>
+    <col min="1029" max="1030" width="27.5" customWidth="1"/>
+    <col min="1031" max="1031" width="55" customWidth="1"/>
+    <col min="1032" max="1032" width="16.5" customWidth="1"/>
+    <col min="1281" max="1284" width="13.75" customWidth="1"/>
+    <col min="1285" max="1286" width="27.5" customWidth="1"/>
+    <col min="1287" max="1287" width="55" customWidth="1"/>
+    <col min="1288" max="1288" width="16.5" customWidth="1"/>
+    <col min="1537" max="1540" width="13.75" customWidth="1"/>
+    <col min="1541" max="1542" width="27.5" customWidth="1"/>
+    <col min="1543" max="1543" width="55" customWidth="1"/>
+    <col min="1544" max="1544" width="16.5" customWidth="1"/>
+    <col min="1793" max="1796" width="13.75" customWidth="1"/>
+    <col min="1797" max="1798" width="27.5" customWidth="1"/>
+    <col min="1799" max="1799" width="55" customWidth="1"/>
+    <col min="1800" max="1800" width="16.5" customWidth="1"/>
+    <col min="2049" max="2052" width="13.75" customWidth="1"/>
+    <col min="2053" max="2054" width="27.5" customWidth="1"/>
+    <col min="2055" max="2055" width="55" customWidth="1"/>
+    <col min="2056" max="2056" width="16.5" customWidth="1"/>
+    <col min="2305" max="2308" width="13.75" customWidth="1"/>
+    <col min="2309" max="2310" width="27.5" customWidth="1"/>
+    <col min="2311" max="2311" width="55" customWidth="1"/>
+    <col min="2312" max="2312" width="16.5" customWidth="1"/>
+    <col min="2561" max="2564" width="13.75" customWidth="1"/>
+    <col min="2565" max="2566" width="27.5" customWidth="1"/>
+    <col min="2567" max="2567" width="55" customWidth="1"/>
+    <col min="2568" max="2568" width="16.5" customWidth="1"/>
+    <col min="2817" max="2820" width="13.75" customWidth="1"/>
+    <col min="2821" max="2822" width="27.5" customWidth="1"/>
+    <col min="2823" max="2823" width="55" customWidth="1"/>
+    <col min="2824" max="2824" width="16.5" customWidth="1"/>
+    <col min="3073" max="3076" width="13.75" customWidth="1"/>
+    <col min="3077" max="3078" width="27.5" customWidth="1"/>
+    <col min="3079" max="3079" width="55" customWidth="1"/>
+    <col min="3080" max="3080" width="16.5" customWidth="1"/>
+    <col min="3329" max="3332" width="13.75" customWidth="1"/>
+    <col min="3333" max="3334" width="27.5" customWidth="1"/>
+    <col min="3335" max="3335" width="55" customWidth="1"/>
+    <col min="3336" max="3336" width="16.5" customWidth="1"/>
+    <col min="3585" max="3588" width="13.75" customWidth="1"/>
+    <col min="3589" max="3590" width="27.5" customWidth="1"/>
+    <col min="3591" max="3591" width="55" customWidth="1"/>
+    <col min="3592" max="3592" width="16.5" customWidth="1"/>
+    <col min="3841" max="3844" width="13.75" customWidth="1"/>
+    <col min="3845" max="3846" width="27.5" customWidth="1"/>
+    <col min="3847" max="3847" width="55" customWidth="1"/>
+    <col min="3848" max="3848" width="16.5" customWidth="1"/>
+    <col min="4097" max="4100" width="13.75" customWidth="1"/>
+    <col min="4101" max="4102" width="27.5" customWidth="1"/>
+    <col min="4103" max="4103" width="55" customWidth="1"/>
+    <col min="4104" max="4104" width="16.5" customWidth="1"/>
+    <col min="4353" max="4356" width="13.75" customWidth="1"/>
+    <col min="4357" max="4358" width="27.5" customWidth="1"/>
+    <col min="4359" max="4359" width="55" customWidth="1"/>
+    <col min="4360" max="4360" width="16.5" customWidth="1"/>
+    <col min="4609" max="4612" width="13.75" customWidth="1"/>
+    <col min="4613" max="4614" width="27.5" customWidth="1"/>
+    <col min="4615" max="4615" width="55" customWidth="1"/>
+    <col min="4616" max="4616" width="16.5" customWidth="1"/>
+    <col min="4865" max="4868" width="13.75" customWidth="1"/>
+    <col min="4869" max="4870" width="27.5" customWidth="1"/>
+    <col min="4871" max="4871" width="55" customWidth="1"/>
+    <col min="4872" max="4872" width="16.5" customWidth="1"/>
+    <col min="5121" max="5124" width="13.75" customWidth="1"/>
+    <col min="5125" max="5126" width="27.5" customWidth="1"/>
+    <col min="5127" max="5127" width="55" customWidth="1"/>
+    <col min="5128" max="5128" width="16.5" customWidth="1"/>
+    <col min="5377" max="5380" width="13.75" customWidth="1"/>
+    <col min="5381" max="5382" width="27.5" customWidth="1"/>
+    <col min="5383" max="5383" width="55" customWidth="1"/>
+    <col min="5384" max="5384" width="16.5" customWidth="1"/>
+    <col min="5633" max="5636" width="13.75" customWidth="1"/>
+    <col min="5637" max="5638" width="27.5" customWidth="1"/>
+    <col min="5639" max="5639" width="55" customWidth="1"/>
+    <col min="5640" max="5640" width="16.5" customWidth="1"/>
+    <col min="5889" max="5892" width="13.75" customWidth="1"/>
+    <col min="5893" max="5894" width="27.5" customWidth="1"/>
+    <col min="5895" max="5895" width="55" customWidth="1"/>
+    <col min="5896" max="5896" width="16.5" customWidth="1"/>
+    <col min="6145" max="6148" width="13.75" customWidth="1"/>
+    <col min="6149" max="6150" width="27.5" customWidth="1"/>
+    <col min="6151" max="6151" width="55" customWidth="1"/>
+    <col min="6152" max="6152" width="16.5" customWidth="1"/>
+    <col min="6401" max="6404" width="13.75" customWidth="1"/>
+    <col min="6405" max="6406" width="27.5" customWidth="1"/>
+    <col min="6407" max="6407" width="55" customWidth="1"/>
+    <col min="6408" max="6408" width="16.5" customWidth="1"/>
+    <col min="6657" max="6660" width="13.75" customWidth="1"/>
+    <col min="6661" max="6662" width="27.5" customWidth="1"/>
+    <col min="6663" max="6663" width="55" customWidth="1"/>
+    <col min="6664" max="6664" width="16.5" customWidth="1"/>
+    <col min="6913" max="6916" width="13.75" customWidth="1"/>
+    <col min="6917" max="6918" width="27.5" customWidth="1"/>
+    <col min="6919" max="6919" width="55" customWidth="1"/>
+    <col min="6920" max="6920" width="16.5" customWidth="1"/>
+    <col min="7169" max="7172" width="13.75" customWidth="1"/>
+    <col min="7173" max="7174" width="27.5" customWidth="1"/>
+    <col min="7175" max="7175" width="55" customWidth="1"/>
+    <col min="7176" max="7176" width="16.5" customWidth="1"/>
+    <col min="7425" max="7428" width="13.75" customWidth="1"/>
+    <col min="7429" max="7430" width="27.5" customWidth="1"/>
+    <col min="7431" max="7431" width="55" customWidth="1"/>
+    <col min="7432" max="7432" width="16.5" customWidth="1"/>
+    <col min="7681" max="7684" width="13.75" customWidth="1"/>
+    <col min="7685" max="7686" width="27.5" customWidth="1"/>
+    <col min="7687" max="7687" width="55" customWidth="1"/>
+    <col min="7688" max="7688" width="16.5" customWidth="1"/>
+    <col min="7937" max="7940" width="13.75" customWidth="1"/>
+    <col min="7941" max="7942" width="27.5" customWidth="1"/>
+    <col min="7943" max="7943" width="55" customWidth="1"/>
+    <col min="7944" max="7944" width="16.5" customWidth="1"/>
+    <col min="8193" max="8196" width="13.75" customWidth="1"/>
+    <col min="8197" max="8198" width="27.5" customWidth="1"/>
+    <col min="8199" max="8199" width="55" customWidth="1"/>
+    <col min="8200" max="8200" width="16.5" customWidth="1"/>
+    <col min="8449" max="8452" width="13.75" customWidth="1"/>
+    <col min="8453" max="8454" width="27.5" customWidth="1"/>
+    <col min="8455" max="8455" width="55" customWidth="1"/>
+    <col min="8456" max="8456" width="16.5" customWidth="1"/>
+    <col min="8705" max="8708" width="13.75" customWidth="1"/>
+    <col min="8709" max="8710" width="27.5" customWidth="1"/>
+    <col min="8711" max="8711" width="55" customWidth="1"/>
+    <col min="8712" max="8712" width="16.5" customWidth="1"/>
+    <col min="8961" max="8964" width="13.75" customWidth="1"/>
+    <col min="8965" max="8966" width="27.5" customWidth="1"/>
+    <col min="8967" max="8967" width="55" customWidth="1"/>
+    <col min="8968" max="8968" width="16.5" customWidth="1"/>
+    <col min="9217" max="9220" width="13.75" customWidth="1"/>
+    <col min="9221" max="9222" width="27.5" customWidth="1"/>
+    <col min="9223" max="9223" width="55" customWidth="1"/>
+    <col min="9224" max="9224" width="16.5" customWidth="1"/>
+    <col min="9473" max="9476" width="13.75" customWidth="1"/>
+    <col min="9477" max="9478" width="27.5" customWidth="1"/>
+    <col min="9479" max="9479" width="55" customWidth="1"/>
+    <col min="9480" max="9480" width="16.5" customWidth="1"/>
+    <col min="9729" max="9732" width="13.75" customWidth="1"/>
+    <col min="9733" max="9734" width="27.5" customWidth="1"/>
+    <col min="9735" max="9735" width="55" customWidth="1"/>
+    <col min="9736" max="9736" width="16.5" customWidth="1"/>
+    <col min="9985" max="9988" width="13.75" customWidth="1"/>
+    <col min="9989" max="9990" width="27.5" customWidth="1"/>
+    <col min="9991" max="9991" width="55" customWidth="1"/>
+    <col min="9992" max="9992" width="16.5" customWidth="1"/>
+    <col min="10241" max="10244" width="13.75" customWidth="1"/>
+    <col min="10245" max="10246" width="27.5" customWidth="1"/>
+    <col min="10247" max="10247" width="55" customWidth="1"/>
+    <col min="10248" max="10248" width="16.5" customWidth="1"/>
+    <col min="10497" max="10500" width="13.75" customWidth="1"/>
+    <col min="10501" max="10502" width="27.5" customWidth="1"/>
+    <col min="10503" max="10503" width="55" customWidth="1"/>
+    <col min="10504" max="10504" width="16.5" customWidth="1"/>
+    <col min="10753" max="10756" width="13.75" customWidth="1"/>
+    <col min="10757" max="10758" width="27.5" customWidth="1"/>
+    <col min="10759" max="10759" width="55" customWidth="1"/>
+    <col min="10760" max="10760" width="16.5" customWidth="1"/>
+    <col min="11009" max="11012" width="13.75" customWidth="1"/>
+    <col min="11013" max="11014" width="27.5" customWidth="1"/>
+    <col min="11015" max="11015" width="55" customWidth="1"/>
+    <col min="11016" max="11016" width="16.5" customWidth="1"/>
+    <col min="11265" max="11268" width="13.75" customWidth="1"/>
+    <col min="11269" max="11270" width="27.5" customWidth="1"/>
+    <col min="11271" max="11271" width="55" customWidth="1"/>
+    <col min="11272" max="11272" width="16.5" customWidth="1"/>
+    <col min="11521" max="11524" width="13.75" customWidth="1"/>
+    <col min="11525" max="11526" width="27.5" customWidth="1"/>
+    <col min="11527" max="11527" width="55" customWidth="1"/>
+    <col min="11528" max="11528" width="16.5" customWidth="1"/>
+    <col min="11777" max="11780" width="13.75" customWidth="1"/>
+    <col min="11781" max="11782" width="27.5" customWidth="1"/>
+    <col min="11783" max="11783" width="55" customWidth="1"/>
+    <col min="11784" max="11784" width="16.5" customWidth="1"/>
+    <col min="12033" max="12036" width="13.75" customWidth="1"/>
+    <col min="12037" max="12038" width="27.5" customWidth="1"/>
+    <col min="12039" max="12039" width="55" customWidth="1"/>
+    <col min="12040" max="12040" width="16.5" customWidth="1"/>
+    <col min="12289" max="12292" width="13.75" customWidth="1"/>
+    <col min="12293" max="12294" width="27.5" customWidth="1"/>
+    <col min="12295" max="12295" width="55" customWidth="1"/>
+    <col min="12296" max="12296" width="16.5" customWidth="1"/>
+    <col min="12545" max="12548" width="13.75" customWidth="1"/>
+    <col min="12549" max="12550" width="27.5" customWidth="1"/>
+    <col min="12551" max="12551" width="55" customWidth="1"/>
+    <col min="12552" max="12552" width="16.5" customWidth="1"/>
+    <col min="12801" max="12804" width="13.75" customWidth="1"/>
+    <col min="12805" max="12806" width="27.5" customWidth="1"/>
+    <col min="12807" max="12807" width="55" customWidth="1"/>
+    <col min="12808" max="12808" width="16.5" customWidth="1"/>
+    <col min="13057" max="13060" width="13.75" customWidth="1"/>
+    <col min="13061" max="13062" width="27.5" customWidth="1"/>
+    <col min="13063" max="13063" width="55" customWidth="1"/>
+    <col min="13064" max="13064" width="16.5" customWidth="1"/>
+    <col min="13313" max="13316" width="13.75" customWidth="1"/>
+    <col min="13317" max="13318" width="27.5" customWidth="1"/>
+    <col min="13319" max="13319" width="55" customWidth="1"/>
+    <col min="13320" max="13320" width="16.5" customWidth="1"/>
+    <col min="13569" max="13572" width="13.75" customWidth="1"/>
+    <col min="13573" max="13574" width="27.5" customWidth="1"/>
+    <col min="13575" max="13575" width="55" customWidth="1"/>
+    <col min="13576" max="13576" width="16.5" customWidth="1"/>
+    <col min="13825" max="13828" width="13.75" customWidth="1"/>
+    <col min="13829" max="13830" width="27.5" customWidth="1"/>
+    <col min="13831" max="13831" width="55" customWidth="1"/>
+    <col min="13832" max="13832" width="16.5" customWidth="1"/>
+    <col min="14081" max="14084" width="13.75" customWidth="1"/>
+    <col min="14085" max="14086" width="27.5" customWidth="1"/>
+    <col min="14087" max="14087" width="55" customWidth="1"/>
+    <col min="14088" max="14088" width="16.5" customWidth="1"/>
+    <col min="14337" max="14340" width="13.75" customWidth="1"/>
+    <col min="14341" max="14342" width="27.5" customWidth="1"/>
+    <col min="14343" max="14343" width="55" customWidth="1"/>
+    <col min="14344" max="14344" width="16.5" customWidth="1"/>
+    <col min="14593" max="14596" width="13.75" customWidth="1"/>
+    <col min="14597" max="14598" width="27.5" customWidth="1"/>
+    <col min="14599" max="14599" width="55" customWidth="1"/>
+    <col min="14600" max="14600" width="16.5" customWidth="1"/>
+    <col min="14849" max="14852" width="13.75" customWidth="1"/>
+    <col min="14853" max="14854" width="27.5" customWidth="1"/>
+    <col min="14855" max="14855" width="55" customWidth="1"/>
+    <col min="14856" max="14856" width="16.5" customWidth="1"/>
+    <col min="15105" max="15108" width="13.75" customWidth="1"/>
+    <col min="15109" max="15110" width="27.5" customWidth="1"/>
+    <col min="15111" max="15111" width="55" customWidth="1"/>
+    <col min="15112" max="15112" width="16.5" customWidth="1"/>
+    <col min="15361" max="15364" width="13.75" customWidth="1"/>
+    <col min="15365" max="15366" width="27.5" customWidth="1"/>
+    <col min="15367" max="15367" width="55" customWidth="1"/>
+    <col min="15368" max="15368" width="16.5" customWidth="1"/>
+    <col min="15617" max="15620" width="13.75" customWidth="1"/>
+    <col min="15621" max="15622" width="27.5" customWidth="1"/>
+    <col min="15623" max="15623" width="55" customWidth="1"/>
+    <col min="15624" max="15624" width="16.5" customWidth="1"/>
+    <col min="15873" max="15876" width="13.75" customWidth="1"/>
+    <col min="15877" max="15878" width="27.5" customWidth="1"/>
+    <col min="15879" max="15879" width="55" customWidth="1"/>
+    <col min="15880" max="15880" width="16.5" customWidth="1"/>
+    <col min="16129" max="16132" width="13.75" customWidth="1"/>
+    <col min="16133" max="16134" width="27.5" customWidth="1"/>
+    <col min="16135" max="16135" width="55" customWidth="1"/>
+    <col min="16136" max="16136" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/unity-business-innovation/src/main/resources/template/dwsp.xlsx
+++ b/unity-business-innovation/src/main/resources/template/dwsp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86156\Desktop\文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinhuan/Documents/jkWorkspace/innovationpublish-api/unity-business-innovation/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52FA395-D08A-4CFA-BF4B-48AEB803046B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5961138-CA4F-9C40-BCA6-3D4D0C79C28D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>标题</t>
   </si>
@@ -49,13 +49,17 @@
   </si>
   <si>
     <t>创建时间</t>
+  </si>
+  <si>
+    <t>hh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,7 +94,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,51 +117,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="0"/>
-      </right>
-      <top style="thin">
-        <color indexed="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -441,329 +414,330 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="13.75" customWidth="1"/>
+    <col min="1" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="6" width="27.5" customWidth="1"/>
     <col min="7" max="7" width="55" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="257" max="260" width="13.75" customWidth="1"/>
+    <col min="257" max="260" width="13.6640625" customWidth="1"/>
     <col min="261" max="262" width="27.5" customWidth="1"/>
     <col min="263" max="263" width="55" customWidth="1"/>
     <col min="264" max="264" width="16.5" customWidth="1"/>
-    <col min="513" max="516" width="13.75" customWidth="1"/>
+    <col min="513" max="516" width="13.6640625" customWidth="1"/>
     <col min="517" max="518" width="27.5" customWidth="1"/>
     <col min="519" max="519" width="55" customWidth="1"/>
     <col min="520" max="520" width="16.5" customWidth="1"/>
-    <col min="769" max="772" width="13.75" customWidth="1"/>
+    <col min="769" max="772" width="13.6640625" customWidth="1"/>
     <col min="773" max="774" width="27.5" customWidth="1"/>
     <col min="775" max="775" width="55" customWidth="1"/>
     <col min="776" max="776" width="16.5" customWidth="1"/>
-    <col min="1025" max="1028" width="13.75" customWidth="1"/>
+    <col min="1025" max="1028" width="13.6640625" customWidth="1"/>
     <col min="1029" max="1030" width="27.5" customWidth="1"/>
     <col min="1031" max="1031" width="55" customWidth="1"/>
     <col min="1032" max="1032" width="16.5" customWidth="1"/>
-    <col min="1281" max="1284" width="13.75" customWidth="1"/>
+    <col min="1281" max="1284" width="13.6640625" customWidth="1"/>
     <col min="1285" max="1286" width="27.5" customWidth="1"/>
     <col min="1287" max="1287" width="55" customWidth="1"/>
     <col min="1288" max="1288" width="16.5" customWidth="1"/>
-    <col min="1537" max="1540" width="13.75" customWidth="1"/>
+    <col min="1537" max="1540" width="13.6640625" customWidth="1"/>
     <col min="1541" max="1542" width="27.5" customWidth="1"/>
     <col min="1543" max="1543" width="55" customWidth="1"/>
     <col min="1544" max="1544" width="16.5" customWidth="1"/>
-    <col min="1793" max="1796" width="13.75" customWidth="1"/>
+    <col min="1793" max="1796" width="13.6640625" customWidth="1"/>
     <col min="1797" max="1798" width="27.5" customWidth="1"/>
     <col min="1799" max="1799" width="55" customWidth="1"/>
     <col min="1800" max="1800" width="16.5" customWidth="1"/>
-    <col min="2049" max="2052" width="13.75" customWidth="1"/>
+    <col min="2049" max="2052" width="13.6640625" customWidth="1"/>
     <col min="2053" max="2054" width="27.5" customWidth="1"/>
     <col min="2055" max="2055" width="55" customWidth="1"/>
     <col min="2056" max="2056" width="16.5" customWidth="1"/>
-    <col min="2305" max="2308" width="13.75" customWidth="1"/>
+    <col min="2305" max="2308" width="13.6640625" customWidth="1"/>
     <col min="2309" max="2310" width="27.5" customWidth="1"/>
     <col min="2311" max="2311" width="55" customWidth="1"/>
     <col min="2312" max="2312" width="16.5" customWidth="1"/>
-    <col min="2561" max="2564" width="13.75" customWidth="1"/>
+    <col min="2561" max="2564" width="13.6640625" customWidth="1"/>
     <col min="2565" max="2566" width="27.5" customWidth="1"/>
     <col min="2567" max="2567" width="55" customWidth="1"/>
     <col min="2568" max="2568" width="16.5" customWidth="1"/>
-    <col min="2817" max="2820" width="13.75" customWidth="1"/>
+    <col min="2817" max="2820" width="13.6640625" customWidth="1"/>
     <col min="2821" max="2822" width="27.5" customWidth="1"/>
     <col min="2823" max="2823" width="55" customWidth="1"/>
     <col min="2824" max="2824" width="16.5" customWidth="1"/>
-    <col min="3073" max="3076" width="13.75" customWidth="1"/>
+    <col min="3073" max="3076" width="13.6640625" customWidth="1"/>
     <col min="3077" max="3078" width="27.5" customWidth="1"/>
     <col min="3079" max="3079" width="55" customWidth="1"/>
     <col min="3080" max="3080" width="16.5" customWidth="1"/>
-    <col min="3329" max="3332" width="13.75" customWidth="1"/>
+    <col min="3329" max="3332" width="13.6640625" customWidth="1"/>
     <col min="3333" max="3334" width="27.5" customWidth="1"/>
     <col min="3335" max="3335" width="55" customWidth="1"/>
     <col min="3336" max="3336" width="16.5" customWidth="1"/>
-    <col min="3585" max="3588" width="13.75" customWidth="1"/>
+    <col min="3585" max="3588" width="13.6640625" customWidth="1"/>
     <col min="3589" max="3590" width="27.5" customWidth="1"/>
     <col min="3591" max="3591" width="55" customWidth="1"/>
     <col min="3592" max="3592" width="16.5" customWidth="1"/>
-    <col min="3841" max="3844" width="13.75" customWidth="1"/>
+    <col min="3841" max="3844" width="13.6640625" customWidth="1"/>
     <col min="3845" max="3846" width="27.5" customWidth="1"/>
     <col min="3847" max="3847" width="55" customWidth="1"/>
     <col min="3848" max="3848" width="16.5" customWidth="1"/>
-    <col min="4097" max="4100" width="13.75" customWidth="1"/>
+    <col min="4097" max="4100" width="13.6640625" customWidth="1"/>
     <col min="4101" max="4102" width="27.5" customWidth="1"/>
     <col min="4103" max="4103" width="55" customWidth="1"/>
     <col min="4104" max="4104" width="16.5" customWidth="1"/>
-    <col min="4353" max="4356" width="13.75" customWidth="1"/>
+    <col min="4353" max="4356" width="13.6640625" customWidth="1"/>
     <col min="4357" max="4358" width="27.5" customWidth="1"/>
     <col min="4359" max="4359" width="55" customWidth="1"/>
     <col min="4360" max="4360" width="16.5" customWidth="1"/>
-    <col min="4609" max="4612" width="13.75" customWidth="1"/>
+    <col min="4609" max="4612" width="13.6640625" customWidth="1"/>
     <col min="4613" max="4614" width="27.5" customWidth="1"/>
     <col min="4615" max="4615" width="55" customWidth="1"/>
     <col min="4616" max="4616" width="16.5" customWidth="1"/>
-    <col min="4865" max="4868" width="13.75" customWidth="1"/>
+    <col min="4865" max="4868" width="13.6640625" customWidth="1"/>
     <col min="4869" max="4870" width="27.5" customWidth="1"/>
     <col min="4871" max="4871" width="55" customWidth="1"/>
     <col min="4872" max="4872" width="16.5" customWidth="1"/>
-    <col min="5121" max="5124" width="13.75" customWidth="1"/>
+    <col min="5121" max="5124" width="13.6640625" customWidth="1"/>
     <col min="5125" max="5126" width="27.5" customWidth="1"/>
     <col min="5127" max="5127" width="55" customWidth="1"/>
     <col min="5128" max="5128" width="16.5" customWidth="1"/>
-    <col min="5377" max="5380" width="13.75" customWidth="1"/>
+    <col min="5377" max="5380" width="13.6640625" customWidth="1"/>
     <col min="5381" max="5382" width="27.5" customWidth="1"/>
     <col min="5383" max="5383" width="55" customWidth="1"/>
     <col min="5384" max="5384" width="16.5" customWidth="1"/>
-    <col min="5633" max="5636" width="13.75" customWidth="1"/>
+    <col min="5633" max="5636" width="13.6640625" customWidth="1"/>
     <col min="5637" max="5638" width="27.5" customWidth="1"/>
     <col min="5639" max="5639" width="55" customWidth="1"/>
     <col min="5640" max="5640" width="16.5" customWidth="1"/>
-    <col min="5889" max="5892" width="13.75" customWidth="1"/>
+    <col min="5889" max="5892" width="13.6640625" customWidth="1"/>
     <col min="5893" max="5894" width="27.5" customWidth="1"/>
     <col min="5895" max="5895" width="55" customWidth="1"/>
     <col min="5896" max="5896" width="16.5" customWidth="1"/>
-    <col min="6145" max="6148" width="13.75" customWidth="1"/>
+    <col min="6145" max="6148" width="13.6640625" customWidth="1"/>
     <col min="6149" max="6150" width="27.5" customWidth="1"/>
     <col min="6151" max="6151" width="55" customWidth="1"/>
     <col min="6152" max="6152" width="16.5" customWidth="1"/>
-    <col min="6401" max="6404" width="13.75" customWidth="1"/>
+    <col min="6401" max="6404" width="13.6640625" customWidth="1"/>
     <col min="6405" max="6406" width="27.5" customWidth="1"/>
     <col min="6407" max="6407" width="55" customWidth="1"/>
     <col min="6408" max="6408" width="16.5" customWidth="1"/>
-    <col min="6657" max="6660" width="13.75" customWidth="1"/>
+    <col min="6657" max="6660" width="13.6640625" customWidth="1"/>
     <col min="6661" max="6662" width="27.5" customWidth="1"/>
     <col min="6663" max="6663" width="55" customWidth="1"/>
     <col min="6664" max="6664" width="16.5" customWidth="1"/>
-    <col min="6913" max="6916" width="13.75" customWidth="1"/>
+    <col min="6913" max="6916" width="13.6640625" customWidth="1"/>
     <col min="6917" max="6918" width="27.5" customWidth="1"/>
     <col min="6919" max="6919" width="55" customWidth="1"/>
     <col min="6920" max="6920" width="16.5" customWidth="1"/>
-    <col min="7169" max="7172" width="13.75" customWidth="1"/>
+    <col min="7169" max="7172" width="13.6640625" customWidth="1"/>
     <col min="7173" max="7174" width="27.5" customWidth="1"/>
     <col min="7175" max="7175" width="55" customWidth="1"/>
     <col min="7176" max="7176" width="16.5" customWidth="1"/>
-    <col min="7425" max="7428" width="13.75" customWidth="1"/>
+    <col min="7425" max="7428" width="13.6640625" customWidth="1"/>
     <col min="7429" max="7430" width="27.5" customWidth="1"/>
     <col min="7431" max="7431" width="55" customWidth="1"/>
     <col min="7432" max="7432" width="16.5" customWidth="1"/>
-    <col min="7681" max="7684" width="13.75" customWidth="1"/>
+    <col min="7681" max="7684" width="13.6640625" customWidth="1"/>
     <col min="7685" max="7686" width="27.5" customWidth="1"/>
     <col min="7687" max="7687" width="55" customWidth="1"/>
     <col min="7688" max="7688" width="16.5" customWidth="1"/>
-    <col min="7937" max="7940" width="13.75" customWidth="1"/>
+    <col min="7937" max="7940" width="13.6640625" customWidth="1"/>
     <col min="7941" max="7942" width="27.5" customWidth="1"/>
     <col min="7943" max="7943" width="55" customWidth="1"/>
     <col min="7944" max="7944" width="16.5" customWidth="1"/>
-    <col min="8193" max="8196" width="13.75" customWidth="1"/>
+    <col min="8193" max="8196" width="13.6640625" customWidth="1"/>
     <col min="8197" max="8198" width="27.5" customWidth="1"/>
     <col min="8199" max="8199" width="55" customWidth="1"/>
     <col min="8200" max="8200" width="16.5" customWidth="1"/>
-    <col min="8449" max="8452" width="13.75" customWidth="1"/>
+    <col min="8449" max="8452" width="13.6640625" customWidth="1"/>
     <col min="8453" max="8454" width="27.5" customWidth="1"/>
     <col min="8455" max="8455" width="55" customWidth="1"/>
     <col min="8456" max="8456" width="16.5" customWidth="1"/>
-    <col min="8705" max="8708" width="13.75" customWidth="1"/>
+    <col min="8705" max="8708" width="13.6640625" customWidth="1"/>
     <col min="8709" max="8710" width="27.5" customWidth="1"/>
     <col min="8711" max="8711" width="55" customWidth="1"/>
     <col min="8712" max="8712" width="16.5" customWidth="1"/>
-    <col min="8961" max="8964" width="13.75" customWidth="1"/>
+    <col min="8961" max="8964" width="13.6640625" customWidth="1"/>
     <col min="8965" max="8966" width="27.5" customWidth="1"/>
     <col min="8967" max="8967" width="55" customWidth="1"/>
     <col min="8968" max="8968" width="16.5" customWidth="1"/>
-    <col min="9217" max="9220" width="13.75" customWidth="1"/>
+    <col min="9217" max="9220" width="13.6640625" customWidth="1"/>
     <col min="9221" max="9222" width="27.5" customWidth="1"/>
     <col min="9223" max="9223" width="55" customWidth="1"/>
     <col min="9224" max="9224" width="16.5" customWidth="1"/>
-    <col min="9473" max="9476" width="13.75" customWidth="1"/>
+    <col min="9473" max="9476" width="13.6640625" customWidth="1"/>
     <col min="9477" max="9478" width="27.5" customWidth="1"/>
     <col min="9479" max="9479" width="55" customWidth="1"/>
     <col min="9480" max="9480" width="16.5" customWidth="1"/>
-    <col min="9729" max="9732" width="13.75" customWidth="1"/>
+    <col min="9729" max="9732" width="13.6640625" customWidth="1"/>
     <col min="9733" max="9734" width="27.5" customWidth="1"/>
     <col min="9735" max="9735" width="55" customWidth="1"/>
     <col min="9736" max="9736" width="16.5" customWidth="1"/>
-    <col min="9985" max="9988" width="13.75" customWidth="1"/>
+    <col min="9985" max="9988" width="13.6640625" customWidth="1"/>
     <col min="9989" max="9990" width="27.5" customWidth="1"/>
     <col min="9991" max="9991" width="55" customWidth="1"/>
     <col min="9992" max="9992" width="16.5" customWidth="1"/>
-    <col min="10241" max="10244" width="13.75" customWidth="1"/>
+    <col min="10241" max="10244" width="13.6640625" customWidth="1"/>
     <col min="10245" max="10246" width="27.5" customWidth="1"/>
     <col min="10247" max="10247" width="55" customWidth="1"/>
     <col min="10248" max="10248" width="16.5" customWidth="1"/>
-    <col min="10497" max="10500" width="13.75" customWidth="1"/>
+    <col min="10497" max="10500" width="13.6640625" customWidth="1"/>
     <col min="10501" max="10502" width="27.5" customWidth="1"/>
     <col min="10503" max="10503" width="55" customWidth="1"/>
     <col min="10504" max="10504" width="16.5" customWidth="1"/>
-    <col min="10753" max="10756" width="13.75" customWidth="1"/>
+    <col min="10753" max="10756" width="13.6640625" customWidth="1"/>
     <col min="10757" max="10758" width="27.5" customWidth="1"/>
     <col min="10759" max="10759" width="55" customWidth="1"/>
     <col min="10760" max="10760" width="16.5" customWidth="1"/>
-    <col min="11009" max="11012" width="13.75" customWidth="1"/>
+    <col min="11009" max="11012" width="13.6640625" customWidth="1"/>
     <col min="11013" max="11014" width="27.5" customWidth="1"/>
     <col min="11015" max="11015" width="55" customWidth="1"/>
     <col min="11016" max="11016" width="16.5" customWidth="1"/>
-    <col min="11265" max="11268" width="13.75" customWidth="1"/>
+    <col min="11265" max="11268" width="13.6640625" customWidth="1"/>
     <col min="11269" max="11270" width="27.5" customWidth="1"/>
     <col min="11271" max="11271" width="55" customWidth="1"/>
     <col min="11272" max="11272" width="16.5" customWidth="1"/>
-    <col min="11521" max="11524" width="13.75" customWidth="1"/>
+    <col min="11521" max="11524" width="13.6640625" customWidth="1"/>
     <col min="11525" max="11526" width="27.5" customWidth="1"/>
     <col min="11527" max="11527" width="55" customWidth="1"/>
     <col min="11528" max="11528" width="16.5" customWidth="1"/>
-    <col min="11777" max="11780" width="13.75" customWidth="1"/>
+    <col min="11777" max="11780" width="13.6640625" customWidth="1"/>
     <col min="11781" max="11782" width="27.5" customWidth="1"/>
     <col min="11783" max="11783" width="55" customWidth="1"/>
     <col min="11784" max="11784" width="16.5" customWidth="1"/>
-    <col min="12033" max="12036" width="13.75" customWidth="1"/>
+    <col min="12033" max="12036" width="13.6640625" customWidth="1"/>
     <col min="12037" max="12038" width="27.5" customWidth="1"/>
     <col min="12039" max="12039" width="55" customWidth="1"/>
     <col min="12040" max="12040" width="16.5" customWidth="1"/>
-    <col min="12289" max="12292" width="13.75" customWidth="1"/>
+    <col min="12289" max="12292" width="13.6640625" customWidth="1"/>
     <col min="12293" max="12294" width="27.5" customWidth="1"/>
     <col min="12295" max="12295" width="55" customWidth="1"/>
     <col min="12296" max="12296" width="16.5" customWidth="1"/>
-    <col min="12545" max="12548" width="13.75" customWidth="1"/>
+    <col min="12545" max="12548" width="13.6640625" customWidth="1"/>
     <col min="12549" max="12550" width="27.5" customWidth="1"/>
     <col min="12551" max="12551" width="55" customWidth="1"/>
     <col min="12552" max="12552" width="16.5" customWidth="1"/>
-    <col min="12801" max="12804" width="13.75" customWidth="1"/>
+    <col min="12801" max="12804" width="13.6640625" customWidth="1"/>
     <col min="12805" max="12806" width="27.5" customWidth="1"/>
     <col min="12807" max="12807" width="55" customWidth="1"/>
     <col min="12808" max="12808" width="16.5" customWidth="1"/>
-    <col min="13057" max="13060" width="13.75" customWidth="1"/>
+    <col min="13057" max="13060" width="13.6640625" customWidth="1"/>
     <col min="13061" max="13062" width="27.5" customWidth="1"/>
     <col min="13063" max="13063" width="55" customWidth="1"/>
     <col min="13064" max="13064" width="16.5" customWidth="1"/>
-    <col min="13313" max="13316" width="13.75" customWidth="1"/>
+    <col min="13313" max="13316" width="13.6640625" customWidth="1"/>
     <col min="13317" max="13318" width="27.5" customWidth="1"/>
     <col min="13319" max="13319" width="55" customWidth="1"/>
     <col min="13320" max="13320" width="16.5" customWidth="1"/>
-    <col min="13569" max="13572" width="13.75" customWidth="1"/>
+    <col min="13569" max="13572" width="13.6640625" customWidth="1"/>
     <col min="13573" max="13574" width="27.5" customWidth="1"/>
     <col min="13575" max="13575" width="55" customWidth="1"/>
     <col min="13576" max="13576" width="16.5" customWidth="1"/>
-    <col min="13825" max="13828" width="13.75" customWidth="1"/>
+    <col min="13825" max="13828" width="13.6640625" customWidth="1"/>
     <col min="13829" max="13830" width="27.5" customWidth="1"/>
     <col min="13831" max="13831" width="55" customWidth="1"/>
     <col min="13832" max="13832" width="16.5" customWidth="1"/>
-    <col min="14081" max="14084" width="13.75" customWidth="1"/>
+    <col min="14081" max="14084" width="13.6640625" customWidth="1"/>
     <col min="14085" max="14086" width="27.5" customWidth="1"/>
     <col min="14087" max="14087" width="55" customWidth="1"/>
     <col min="14088" max="14088" width="16.5" customWidth="1"/>
-    <col min="14337" max="14340" width="13.75" customWidth="1"/>
+    <col min="14337" max="14340" width="13.6640625" customWidth="1"/>
     <col min="14341" max="14342" width="27.5" customWidth="1"/>
     <col min="14343" max="14343" width="55" customWidth="1"/>
     <col min="14344" max="14344" width="16.5" customWidth="1"/>
-    <col min="14593" max="14596" width="13.75" customWidth="1"/>
+    <col min="14593" max="14596" width="13.6640625" customWidth="1"/>
     <col min="14597" max="14598" width="27.5" customWidth="1"/>
     <col min="14599" max="14599" width="55" customWidth="1"/>
     <col min="14600" max="14600" width="16.5" customWidth="1"/>
-    <col min="14849" max="14852" width="13.75" customWidth="1"/>
+    <col min="14849" max="14852" width="13.6640625" customWidth="1"/>
     <col min="14853" max="14854" width="27.5" customWidth="1"/>
     <col min="14855" max="14855" width="55" customWidth="1"/>
     <col min="14856" max="14856" width="16.5" customWidth="1"/>
-    <col min="15105" max="15108" width="13.75" customWidth="1"/>
+    <col min="15105" max="15108" width="13.6640625" customWidth="1"/>
     <col min="15109" max="15110" width="27.5" customWidth="1"/>
     <col min="15111" max="15111" width="55" customWidth="1"/>
     <col min="15112" max="15112" width="16.5" customWidth="1"/>
-    <col min="15361" max="15364" width="13.75" customWidth="1"/>
+    <col min="15361" max="15364" width="13.6640625" customWidth="1"/>
     <col min="15365" max="15366" width="27.5" customWidth="1"/>
     <col min="15367" max="15367" width="55" customWidth="1"/>
     <col min="15368" max="15368" width="16.5" customWidth="1"/>
-    <col min="15617" max="15620" width="13.75" customWidth="1"/>
+    <col min="15617" max="15620" width="13.6640625" customWidth="1"/>
     <col min="15621" max="15622" width="27.5" customWidth="1"/>
     <col min="15623" max="15623" width="55" customWidth="1"/>
     <col min="15624" max="15624" width="16.5" customWidth="1"/>
-    <col min="15873" max="15876" width="13.75" customWidth="1"/>
+    <col min="15873" max="15876" width="13.6640625" customWidth="1"/>
     <col min="15877" max="15878" width="27.5" customWidth="1"/>
     <col min="15879" max="15879" width="55" customWidth="1"/>
     <col min="15880" max="15880" width="16.5" customWidth="1"/>
-    <col min="16129" max="16132" width="13.75" customWidth="1"/>
+    <col min="16129" max="16132" width="13.6640625" customWidth="1"/>
     <col min="16133" max="16134" width="27.5" customWidth="1"/>
     <col min="16135" max="16135" width="55" customWidth="1"/>
     <col min="16136" max="16136" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/unity-business-innovation/src/main/resources/template/dwsp.xlsx
+++ b/unity-business-innovation/src/main/resources/template/dwsp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinhuan/Documents/jkWorkspace/innovationpublish-api/unity-business-innovation/src/main/resources/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86156\Desktop\1\after\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5961138-CA4F-9C40-BCA6-3D4D0C79C28D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F0017E-3CC3-4647-B245-2449058118DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,31 +27,39 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
+    <t>hh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>工作类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>关键字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>主题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>内容描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>附件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>创建时间</t>
-  </si>
-  <si>
-    <t>hh</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -59,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,13 +77,15 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -89,12 +99,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="41"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -104,16 +114,53 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -121,16 +168,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -411,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="6" width="27.5" customWidth="1"/>
@@ -677,45 +730,45 @@
     <col min="16136" max="16136" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -725,7 +778,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -734,6 +787,20 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/unity-business-innovation/src/main/resources/template/dwsp.xlsx
+++ b/unity-business-innovation/src/main/resources/template/dwsp.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86156\Desktop\1\after\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinhuan/Documents/jkWorkspace/innovationpublish-api/unity-business-innovation/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F0017E-3CC3-4647-B245-2449058118DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672FB2F0-8E77-1C46-B687-427D823D5ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="2280" windowWidth="29860" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,47 +27,47 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>hh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工作类别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>关键字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内容描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>附件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>创建时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题占位符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,18 +76,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Bold"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Bold"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -104,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,37 +141,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -172,18 +157,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -467,10 +450,10 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="6" width="27.5" customWidth="1"/>
@@ -730,45 +713,45 @@
     <col min="16136" max="16136" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -778,7 +761,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -788,14 +771,14 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -806,7 +789,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/unity-business-innovation/src/main/resources/template/dwsp.xlsx
+++ b/unity-business-innovation/src/main/resources/template/dwsp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinhuan/Documents/jkWorkspace/innovationpublish-api/unity-business-innovation/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672FB2F0-8E77-1C46-B687-427D823D5ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BDB76D-599F-0E4C-9E87-40A7AEFC4236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="2280" windowWidth="29860" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="8440" windowWidth="29860" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,15 +140,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -157,16 +148,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -450,7 +441,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -714,40 +705,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/unity-business-innovation/src/main/resources/template/dwsp.xlsx
+++ b/unity-business-innovation/src/main/resources/template/dwsp.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinhuan/Documents/jkWorkspace/innovationpublish-api/unity-business-innovation/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BDB76D-599F-0E4C-9E87-40A7AEFC4236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257F4AE1-AE96-184E-9010-88DABA10F206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="8440" windowWidth="29860" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="4800" windowWidth="29860" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -83,13 +83,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="等线 (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑 Bold"/>
@@ -100,6 +93,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑 Bold"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线 (正文)"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -148,14 +147,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -441,7 +440,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
